--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value322.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value322.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6711114385370748</v>
+        <v>1.192674517631531</v>
       </c>
       <c r="B1">
-        <v>0.9241188343708703</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.60027038833916</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.348342828433744</v>
+        <v>1.628109812736511</v>
       </c>
       <c r="E1">
-        <v>1.89339673131693</v>
+        <v>1.099163174629211</v>
       </c>
     </row>
   </sheetData>
